--- a/biology/Médecine/That_Mothers_Might_Live/That_Mothers_Might_Live.xlsx
+++ b/biology/Médecine/That_Mothers_Might_Live/That_Mothers_Might_Live.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 That Mothers Might Live est un court métrage américain réalisé par Fred Zinnemann et sorti en 1938. Il a remporté l'Oscar du meilleur court métrage en prises de vues réelles en 1939.
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">That Mothers Might Live est une étude des efforts réalisés au XIXe siècle par Ignace Philippe Semmelweis, un médecin hongrois, pour améliorer l'hygiène en milieu hospitalier[1], ce qui a contribué entre autres à sauver la vie de femmes après leur accouchement.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">That Mothers Might Live est une étude des efforts réalisés au XIXe siècle par Ignace Philippe Semmelweis, un médecin hongrois, pour améliorer l'hygiène en milieu hospitalier, ce qui a contribué entre autres à sauver la vie de femmes après leur accouchement.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Fred Zinnemann
 Scénario : Herman Boxer
@@ -580,7 +596,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Shepperd Strudwick : Dr Semmelweis
 John Nesbitt : narrateur</t>
